--- a/Data/Total Cases.xlsx
+++ b/Data/Total Cases.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anaconda\A_Python\S P Jain\Visual_Analysis_Project\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{CA2448FB-5EA5-46D7-B567-245EB884A264}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9649963C-3AB7-4015-B83F-B08787D0FDF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E96AE191-39E7-46E0-9555-1F77BEE09645}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Book2" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Book2!$A$1:$C$64</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Book2!$A$1:$E$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="72">
   <si>
     <t>Province</t>
   </si>
@@ -246,7 +246,13 @@
     <t>Central</t>
   </si>
   <si>
-    <t>Total</t>
+    <t>Total Cases</t>
+  </si>
+  <si>
+    <t>Fully Vaccinated</t>
+  </si>
+  <si>
+    <t>Process</t>
   </si>
 </sst>
 </file>
@@ -306,7 +312,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -314,6 +320,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -628,21 +635,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C377992-A1AF-4A32-9DFA-023D0556177F}">
-  <dimension ref="A1:C64"/>
+  <dimension ref="A1:E64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20.5546875" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="6" customWidth="1"/>
-    <col min="4" max="16384" width="8.88671875" style="2"/>
+    <col min="3" max="3" width="14.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19" style="2" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -652,8 +661,14 @@
       <c r="C1" s="5" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -662,10 +677,10 @@
       </c>
       <c r="C2" s="6">
         <f ca="1">INT(RAND()*100000)</f>
-        <v>98329</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+        <v>24761</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -674,10 +689,10 @@
       </c>
       <c r="C3" s="6">
         <f t="shared" ref="C3:C64" ca="1" si="0">INT(RAND()*100000)</f>
-        <v>90040</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+        <v>23200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
@@ -686,10 +701,10 @@
       </c>
       <c r="C4" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>41425</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+        <v>3026</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
@@ -698,10 +713,10 @@
       </c>
       <c r="C5" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>76381</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+        <v>39896</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
@@ -710,10 +725,10 @@
       </c>
       <c r="C6" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>50023</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+        <v>68259</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
@@ -722,10 +737,10 @@
       </c>
       <c r="C7" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>6741</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+        <v>60091</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
@@ -734,10 +749,10 @@
       </c>
       <c r="C8" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>90825</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+        <v>72622</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>9</v>
       </c>
@@ -746,10 +761,10 @@
       </c>
       <c r="C9" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>54802</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+        <v>76285</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>10</v>
       </c>
@@ -758,10 +773,10 @@
       </c>
       <c r="C10" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>58047</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+        <v>80445</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>11</v>
       </c>
@@ -770,10 +785,10 @@
       </c>
       <c r="C11" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>71386</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+        <v>59746</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>12</v>
       </c>
@@ -782,10 +797,10 @@
       </c>
       <c r="C12" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>40185</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+        <v>9748</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>13</v>
       </c>
@@ -794,10 +809,10 @@
       </c>
       <c r="C13" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>26276</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+        <v>40847</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>14</v>
       </c>
@@ -806,10 +821,10 @@
       </c>
       <c r="C14" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>59393</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+        <v>31894</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>15</v>
       </c>
@@ -818,10 +833,10 @@
       </c>
       <c r="C15" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>31462</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+        <v>67194</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>16</v>
       </c>
@@ -830,7 +845,7 @@
       </c>
       <c r="C16" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>55433</v>
+        <v>66288</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -842,7 +857,7 @@
       </c>
       <c r="C17" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>89730</v>
+        <v>73616</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -854,7 +869,7 @@
       </c>
       <c r="C18" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>19598</v>
+        <v>38253</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -866,7 +881,7 @@
       </c>
       <c r="C19" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>43813</v>
+        <v>89336</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -878,7 +893,7 @@
       </c>
       <c r="C20" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>88267</v>
+        <v>66098</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -890,7 +905,7 @@
       </c>
       <c r="C21" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>5457</v>
+        <v>16774</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -902,7 +917,7 @@
       </c>
       <c r="C22" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>8004</v>
+        <v>41542</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -914,7 +929,7 @@
       </c>
       <c r="C23" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>34737</v>
+        <v>83048</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -926,7 +941,7 @@
       </c>
       <c r="C24" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>35853</v>
+        <v>26081</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -938,7 +953,7 @@
       </c>
       <c r="C25" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>88494</v>
+        <v>36690</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -950,7 +965,7 @@
       </c>
       <c r="C26" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>22209</v>
+        <v>66788</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
@@ -962,7 +977,7 @@
       </c>
       <c r="C27" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>24850</v>
+        <v>12109</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
@@ -974,7 +989,7 @@
       </c>
       <c r="C28" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>35955</v>
+        <v>29406</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
@@ -986,7 +1001,7 @@
       </c>
       <c r="C29" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>95914</v>
+        <v>74858</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
@@ -998,7 +1013,7 @@
       </c>
       <c r="C30" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>89654</v>
+        <v>93427</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
@@ -1010,7 +1025,7 @@
       </c>
       <c r="C31" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>24801</v>
+        <v>49210</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
@@ -1022,7 +1037,7 @@
       </c>
       <c r="C32" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>6074</v>
+        <v>13743</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
@@ -1034,7 +1049,7 @@
       </c>
       <c r="C33" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>38876</v>
+        <v>16278</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
@@ -1046,7 +1061,7 @@
       </c>
       <c r="C34" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>97498</v>
+        <v>31868</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
@@ -1058,7 +1073,7 @@
       </c>
       <c r="C35" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>628</v>
+        <v>37555</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
@@ -1070,7 +1085,7 @@
       </c>
       <c r="C36" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>27263</v>
+        <v>97957</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
@@ -1082,7 +1097,7 @@
       </c>
       <c r="C37" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>17417</v>
+        <v>31363</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
@@ -1094,7 +1109,7 @@
       </c>
       <c r="C38" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>33325</v>
+        <v>47181</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
@@ -1106,7 +1121,7 @@
       </c>
       <c r="C39" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>47287</v>
+        <v>3126</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
@@ -1118,7 +1133,7 @@
       </c>
       <c r="C40" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>18195</v>
+        <v>29915</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
@@ -1130,7 +1145,7 @@
       </c>
       <c r="C41" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>93976</v>
+        <v>67157</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
@@ -1142,7 +1157,7 @@
       </c>
       <c r="C42" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>48313</v>
+        <v>58939</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
@@ -1154,7 +1169,7 @@
       </c>
       <c r="C43" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>56763</v>
+        <v>31302</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
@@ -1166,7 +1181,7 @@
       </c>
       <c r="C44" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>20862</v>
+        <v>67613</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
@@ -1178,7 +1193,7 @@
       </c>
       <c r="C45" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>46551</v>
+        <v>55223</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
@@ -1190,7 +1205,7 @@
       </c>
       <c r="C46" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>19970</v>
+        <v>88709</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
@@ -1202,7 +1217,7 @@
       </c>
       <c r="C47" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>52324</v>
+        <v>45227</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
@@ -1214,7 +1229,7 @@
       </c>
       <c r="C48" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>62388</v>
+        <v>19670</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
@@ -1226,7 +1241,7 @@
       </c>
       <c r="C49" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>56477</v>
+        <v>19007</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
@@ -1238,7 +1253,7 @@
       </c>
       <c r="C50" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>40577</v>
+        <v>57085</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
@@ -1250,7 +1265,7 @@
       </c>
       <c r="C51" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>82327</v>
+        <v>87198</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
@@ -1262,7 +1277,7 @@
       </c>
       <c r="C52" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>75357</v>
+        <v>30176</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
@@ -1274,7 +1289,7 @@
       </c>
       <c r="C53" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>68784</v>
+        <v>19792</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
@@ -1286,7 +1301,7 @@
       </c>
       <c r="C54" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>27866</v>
+        <v>42859</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
@@ -1298,7 +1313,7 @@
       </c>
       <c r="C55" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>33226</v>
+        <v>98483</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
@@ -1310,7 +1325,7 @@
       </c>
       <c r="C56" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>35395</v>
+        <v>4287</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
@@ -1322,7 +1337,7 @@
       </c>
       <c r="C57" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>97455</v>
+        <v>14122</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
@@ -1334,7 +1349,7 @@
       </c>
       <c r="C58" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>32003</v>
+        <v>27496</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
@@ -1346,7 +1361,7 @@
       </c>
       <c r="C59" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>27558</v>
+        <v>1709</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
@@ -1358,7 +1373,7 @@
       </c>
       <c r="C60" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>86876</v>
+        <v>65296</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
@@ -1370,7 +1385,7 @@
       </c>
       <c r="C61" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>13548</v>
+        <v>97783</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
@@ -1382,7 +1397,7 @@
       </c>
       <c r="C62" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>79910</v>
+        <v>26692</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
@@ -1394,7 +1409,7 @@
       </c>
       <c r="C63" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>68303</v>
+        <v>30376</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
@@ -1406,11 +1421,12 @@
       </c>
       <c r="C64" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>32464</v>
+        <v>52843</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C64" xr:uid="{2C377992-A1AF-4A32-9DFA-023D0556177F}"/>
+  <autoFilter ref="A1:E1" xr:uid="{2C377992-A1AF-4A32-9DFA-023D0556177F}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Data/Total Cases.xlsx
+++ b/Data/Total Cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anaconda\A_Python\S P Jain\Visual_Analysis_Project\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9649963C-3AB7-4015-B83F-B08787D0FDF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4454923C-578A-46C5-892B-4882956814D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E96AE191-39E7-46E0-9555-1F77BEE09645}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Book2" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Book2!$A$1:$E$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Book2!$A$1:$F$64</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="73">
   <si>
     <t>Province</t>
   </si>
@@ -253,6 +253,9 @@
   </si>
   <si>
     <t>Process</t>
+  </si>
+  <si>
+    <t>Deadths</t>
   </si>
 </sst>
 </file>
@@ -312,7 +315,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -320,6 +323,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -635,10 +640,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C377992-A1AF-4A32-9DFA-023D0556177F}">
-  <dimension ref="A1:E64"/>
+  <dimension ref="A1:G64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -646,12 +651,13 @@
     <col min="1" max="1" width="20.5546875" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="14.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19" style="2" customWidth="1"/>
-    <col min="5" max="5" width="10.6640625" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="2"/>
+    <col min="4" max="4" width="19" style="6" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" style="8" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -661,14 +667,17 @@
       <c r="C1" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="5" t="s">
         <v>70</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1" s="9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -676,11 +685,19 @@
         <v>67</v>
       </c>
       <c r="C2" s="6">
-        <f ca="1">INT(RAND()*100000)</f>
-        <v>24761</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+        <v>20331</v>
+      </c>
+      <c r="D2" s="6">
+        <v>974634</v>
+      </c>
+      <c r="E2" s="8">
+        <v>0.66890000000000005</v>
+      </c>
+      <c r="F2" s="2">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -688,11 +705,19 @@
         <v>66</v>
       </c>
       <c r="C3" s="6">
-        <f t="shared" ref="C3:C64" ca="1" si="0">INT(RAND()*100000)</f>
-        <v>23200</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+        <v>8795</v>
+      </c>
+      <c r="D3" s="6">
+        <v>618446</v>
+      </c>
+      <c r="E3" s="8">
+        <v>0.69389999999999996</v>
+      </c>
+      <c r="F3" s="2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
@@ -700,11 +725,19 @@
         <v>65</v>
       </c>
       <c r="C4" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>3026</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+        <v>6785</v>
+      </c>
+      <c r="D4" s="6">
+        <v>663349</v>
+      </c>
+      <c r="E4" s="8">
+        <v>0.52329999999999999</v>
+      </c>
+      <c r="F4" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
@@ -712,11 +745,19 @@
         <v>65</v>
       </c>
       <c r="C5" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>39896</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+      <c r="D5" s="6">
+        <v>64235</v>
+      </c>
+      <c r="E5" s="8">
+        <v>0.2888</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
@@ -724,11 +765,19 @@
         <v>67</v>
       </c>
       <c r="C6" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>68259</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+        <v>8918</v>
+      </c>
+      <c r="D6" s="6">
+        <v>366902</v>
+      </c>
+      <c r="E6" s="8">
+        <v>0.54330000000000001</v>
+      </c>
+      <c r="F6" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
@@ -736,11 +785,19 @@
         <v>65</v>
       </c>
       <c r="C7" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>60091</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+        <v>3271</v>
+      </c>
+      <c r="D7" s="6">
+        <v>731255</v>
+      </c>
+      <c r="E7" s="8">
+        <v>0.74219999999999997</v>
+      </c>
+      <c r="F7" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
@@ -748,11 +805,19 @@
         <v>67</v>
       </c>
       <c r="C8" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>72622</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+        <v>4261</v>
+      </c>
+      <c r="D8" s="6">
+        <v>494547</v>
+      </c>
+      <c r="E8" s="8">
+        <v>0.50429999999999997</v>
+      </c>
+      <c r="F8" s="2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>9</v>
       </c>
@@ -760,11 +825,19 @@
         <v>68</v>
       </c>
       <c r="C9" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>76285</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+        <v>2701</v>
+      </c>
+      <c r="D9" s="6">
+        <v>341218</v>
+      </c>
+      <c r="E9" s="8">
+        <v>0.30719999999999997</v>
+      </c>
+      <c r="F9" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>10</v>
       </c>
@@ -772,11 +845,19 @@
         <v>66</v>
       </c>
       <c r="C10" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>80445</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+        <v>247337</v>
+      </c>
+      <c r="D10" s="6">
+        <v>1747763</v>
+      </c>
+      <c r="E10" s="8">
+        <v>0.73399999999999999</v>
+      </c>
+      <c r="F10" s="2">
+        <v>2593</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>11</v>
       </c>
@@ -784,11 +865,19 @@
         <v>66</v>
       </c>
       <c r="C11" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>59746</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+        <v>4300</v>
+      </c>
+      <c r="D11" s="6">
+        <v>487369</v>
+      </c>
+      <c r="E11" s="8">
+        <v>0.64249999999999996</v>
+      </c>
+      <c r="F11" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>12</v>
       </c>
@@ -796,11 +885,19 @@
         <v>66</v>
       </c>
       <c r="C12" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>9748</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+        <v>11096</v>
+      </c>
+      <c r="D12" s="6">
+        <v>271995</v>
+      </c>
+      <c r="E12" s="8">
+        <v>0.31430000000000002</v>
+      </c>
+      <c r="F12" s="2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>13</v>
       </c>
@@ -808,11 +905,19 @@
         <v>67</v>
       </c>
       <c r="C13" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>40847</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5922</v>
+      </c>
+      <c r="D13" s="6">
+        <v>363626</v>
+      </c>
+      <c r="E13" s="8">
+        <v>0.42399999999999999</v>
+      </c>
+      <c r="F13" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>14</v>
       </c>
@@ -820,11 +925,19 @@
         <v>67</v>
       </c>
       <c r="C14" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>31894</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+        <v>10278</v>
+      </c>
+      <c r="D14" s="6">
+        <v>439220</v>
+      </c>
+      <c r="E14" s="8">
+        <v>0.46639999999999998</v>
+      </c>
+      <c r="F14" s="2">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>15</v>
       </c>
@@ -832,11 +945,19 @@
         <v>65</v>
       </c>
       <c r="C15" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>67194</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+      <c r="D15" s="6">
+        <v>156542</v>
+      </c>
+      <c r="E15" s="8">
+        <v>0.42430000000000001</v>
+      </c>
+      <c r="F15" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>16</v>
       </c>
@@ -844,11 +965,19 @@
         <v>68</v>
       </c>
       <c r="C16" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>66288</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+        <v>5398</v>
+      </c>
+      <c r="D16" s="6">
+        <v>589642</v>
+      </c>
+      <c r="E16" s="8">
+        <v>0.66620000000000001</v>
+      </c>
+      <c r="F16" s="2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>17</v>
       </c>
@@ -856,11 +985,19 @@
         <v>68</v>
       </c>
       <c r="C17" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>73616</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+        <v>6568</v>
+      </c>
+      <c r="D17" s="6">
+        <v>152949</v>
+      </c>
+      <c r="E17" s="8">
+        <v>0.1123</v>
+      </c>
+      <c r="F17" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>18</v>
       </c>
@@ -868,11 +1005,19 @@
         <v>68</v>
       </c>
       <c r="C18" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>38253</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1698</v>
+      </c>
+      <c r="D18" s="6">
+        <v>154248</v>
+      </c>
+      <c r="E18" s="8">
+        <v>0.34660000000000002</v>
+      </c>
+      <c r="F18" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>19</v>
       </c>
@@ -880,11 +1025,19 @@
         <v>65</v>
       </c>
       <c r="C19" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>89336</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+        <v>377</v>
+      </c>
+      <c r="D19" s="6">
+        <v>90078</v>
+      </c>
+      <c r="E19" s="8">
+        <v>0.24979999999999999</v>
+      </c>
+      <c r="F19" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>20</v>
       </c>
@@ -892,11 +1045,19 @@
         <v>66</v>
       </c>
       <c r="C20" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>66098</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+        <v>81688</v>
+      </c>
+      <c r="D20" s="6">
+        <v>2187730</v>
+      </c>
+      <c r="E20" s="8">
+        <v>0.91759999999999997</v>
+      </c>
+      <c r="F20" s="2">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>21</v>
       </c>
@@ -904,11 +1065,19 @@
         <v>67</v>
       </c>
       <c r="C21" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>16774</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+        <v>16171</v>
+      </c>
+      <c r="D21" s="6">
+        <v>699163</v>
+      </c>
+      <c r="E21" s="8">
+        <v>0.59189999999999998</v>
+      </c>
+      <c r="F21" s="2">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>22</v>
       </c>
@@ -916,11 +1085,19 @@
         <v>68</v>
       </c>
       <c r="C22" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>41542</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2633</v>
+      </c>
+      <c r="D22" s="6">
+        <v>166598</v>
+      </c>
+      <c r="E22" s="8">
+        <v>0.17419999999999999</v>
+      </c>
+      <c r="F22" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>23</v>
       </c>
@@ -928,11 +1105,19 @@
         <v>65</v>
       </c>
       <c r="C23" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>83048</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+        <v>3005</v>
+      </c>
+      <c r="D23" s="6">
+        <v>131154</v>
+      </c>
+      <c r="E23" s="8">
+        <v>0.2213</v>
+      </c>
+      <c r="F23" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>24</v>
       </c>
@@ -940,11 +1125,19 @@
         <v>65</v>
       </c>
       <c r="C24" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>26081</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1323</v>
+      </c>
+      <c r="D24" s="6">
+        <v>527410</v>
+      </c>
+      <c r="E24" s="8">
+        <v>0.86150000000000004</v>
+      </c>
+      <c r="F24" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>25</v>
       </c>
@@ -952,11 +1145,19 @@
         <v>65</v>
       </c>
       <c r="C25" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>36690</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+        <v>7570</v>
+      </c>
+      <c r="D25" s="6">
+        <v>5340429</v>
+      </c>
+      <c r="E25" s="8">
+        <v>0.86140000000000005</v>
+      </c>
+      <c r="F25" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>26</v>
       </c>
@@ -964,11 +1165,19 @@
         <v>68</v>
       </c>
       <c r="C26" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>66788</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+        <v>782</v>
+      </c>
+      <c r="D26" s="6">
+        <v>275101</v>
+      </c>
+      <c r="E26" s="8">
+        <v>0.30819999999999997</v>
+      </c>
+      <c r="F26" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>27</v>
       </c>
@@ -976,11 +1185,19 @@
         <v>65</v>
       </c>
       <c r="C27" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>12109</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+        <v>563</v>
+      </c>
+      <c r="D27" s="6">
+        <v>529794</v>
+      </c>
+      <c r="E27" s="8">
+        <v>0.38740000000000002</v>
+      </c>
+      <c r="F27" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>28</v>
       </c>
@@ -988,11 +1205,19 @@
         <v>65</v>
       </c>
       <c r="C28" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>29406</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+        <v>148</v>
+      </c>
+      <c r="D28" s="6">
+        <v>554901</v>
+      </c>
+      <c r="E28" s="8">
+        <v>0.35120000000000001</v>
+      </c>
+      <c r="F28" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>29</v>
       </c>
@@ -1000,11 +1225,19 @@
         <v>67</v>
       </c>
       <c r="C29" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>74858</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2978</v>
+      </c>
+      <c r="D29" s="6">
+        <v>91799</v>
+      </c>
+      <c r="E29" s="8">
+        <v>0.17119999999999999</v>
+      </c>
+      <c r="F29" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>30</v>
       </c>
@@ -1012,11 +1245,19 @@
         <v>66</v>
       </c>
       <c r="C30" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>93427</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+        <v>455107</v>
+      </c>
+      <c r="D30" s="6">
+        <v>6013801</v>
+      </c>
+      <c r="E30" s="8">
+        <v>0.83420000000000005</v>
+      </c>
+      <c r="F30" s="2">
+        <v>17404</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>31</v>
       </c>
@@ -1024,11 +1265,19 @@
         <v>65</v>
       </c>
       <c r="C31" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>49210</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+      <c r="D31" s="6">
+        <v>289357</v>
+      </c>
+      <c r="E31" s="8">
+        <v>0.42549999999999999</v>
+      </c>
+      <c r="F31" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
         <v>32</v>
       </c>
@@ -1036,11 +1285,19 @@
         <v>65</v>
       </c>
       <c r="C32" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>13743</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+        <v>555</v>
+      </c>
+      <c r="D32" s="6">
+        <v>448568</v>
+      </c>
+      <c r="E32" s="8">
+        <v>0.45200000000000001</v>
+      </c>
+      <c r="F32" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>33</v>
       </c>
@@ -1048,11 +1305,19 @@
         <v>68</v>
       </c>
       <c r="C33" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>16278</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+        <v>11125</v>
+      </c>
+      <c r="D33" s="6">
+        <v>874994</v>
+      </c>
+      <c r="E33" s="8">
+        <v>0.97030000000000005</v>
+      </c>
+      <c r="F33" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
         <v>34</v>
       </c>
@@ -1060,11 +1325,19 @@
         <v>67</v>
       </c>
       <c r="C34" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>31868</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+        <v>16099</v>
+      </c>
+      <c r="D34" s="6">
+        <v>727862</v>
+      </c>
+      <c r="E34" s="8">
+        <v>0.58309999999999995</v>
+      </c>
+      <c r="F34" s="2">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>35</v>
       </c>
@@ -1072,11 +1345,19 @@
         <v>68</v>
       </c>
       <c r="C35" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>37555</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+        <v>352</v>
+      </c>
+      <c r="D35" s="6">
+        <v>82984</v>
+      </c>
+      <c r="E35" s="8">
+        <v>0.2228</v>
+      </c>
+      <c r="F35" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>36</v>
       </c>
@@ -1084,11 +1365,19 @@
         <v>65</v>
       </c>
       <c r="C36" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>97957</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+      <c r="D36" s="6">
+        <v>166042</v>
+      </c>
+      <c r="E36" s="8">
+        <v>0.58760000000000001</v>
+      </c>
+      <c r="F36" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
         <v>37</v>
       </c>
@@ -1096,11 +1385,19 @@
         <v>66</v>
       </c>
       <c r="C37" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>31363</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1310</v>
+      </c>
+      <c r="D37" s="6">
+        <v>711626</v>
+      </c>
+      <c r="E37" s="8">
+        <v>0.78969999999999996</v>
+      </c>
+      <c r="F37" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
         <v>38</v>
       </c>
@@ -1108,11 +1405,19 @@
         <v>65</v>
       </c>
       <c r="C38" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>47181</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+        <v>322</v>
+      </c>
+      <c r="D38" s="6">
+        <v>453880</v>
+      </c>
+      <c r="E38" s="8">
+        <v>0.81310000000000004</v>
+      </c>
+      <c r="F38" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
         <v>39</v>
       </c>
@@ -1120,11 +1425,19 @@
         <v>65</v>
       </c>
       <c r="C39" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>3126</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+        <v>159</v>
+      </c>
+      <c r="D39" s="6">
+        <v>219190</v>
+      </c>
+      <c r="E39" s="8">
+        <v>0.42309999999999998</v>
+      </c>
+      <c r="F39" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
         <v>40</v>
       </c>
@@ -1132,11 +1445,19 @@
         <v>67</v>
       </c>
       <c r="C40" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>29915</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+        <v>37158</v>
+      </c>
+      <c r="D40" s="6">
+        <v>1393997</v>
+      </c>
+      <c r="E40" s="8">
+        <v>1</v>
+      </c>
+      <c r="F40" s="2">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
         <v>41</v>
       </c>
@@ -1144,11 +1465,19 @@
         <v>65</v>
       </c>
       <c r="C41" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>67157</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1022</v>
+      </c>
+      <c r="D41" s="6">
+        <v>227678</v>
+      </c>
+      <c r="E41" s="8">
+        <v>0.1789</v>
+      </c>
+      <c r="F41" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
         <v>42</v>
       </c>
@@ -1156,11 +1485,19 @@
         <v>68</v>
       </c>
       <c r="C42" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>58939</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+        <v>3476</v>
+      </c>
+      <c r="D42" s="6">
+        <v>742588</v>
+      </c>
+      <c r="E42" s="8">
+        <v>0.30349999999999999</v>
+      </c>
+      <c r="F42" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
         <v>43</v>
       </c>
@@ -1168,11 +1505,19 @@
         <v>65</v>
       </c>
       <c r="C43" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>31302</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+        <v>215</v>
+      </c>
+      <c r="D43" s="6">
+        <v>450477</v>
+      </c>
+      <c r="E43" s="8">
+        <v>0.64780000000000004</v>
+      </c>
+      <c r="F43" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
         <v>44</v>
       </c>
@@ -1180,11 +1525,19 @@
         <v>68</v>
       </c>
       <c r="C44" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>67613</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+        <v>3368</v>
+      </c>
+      <c r="D44" s="6">
+        <v>218498</v>
+      </c>
+      <c r="E44" s="8">
+        <v>0.5101</v>
+      </c>
+      <c r="F44" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
         <v>45</v>
       </c>
@@ -1192,11 +1545,19 @@
         <v>65</v>
       </c>
       <c r="C45" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>55223</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1551</v>
+      </c>
+      <c r="D45" s="6">
+        <v>319286</v>
+      </c>
+      <c r="E45" s="8">
+        <v>0.31009999999999999</v>
+      </c>
+      <c r="F45" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
         <v>46</v>
       </c>
@@ -1204,11 +1565,19 @@
         <v>68</v>
       </c>
       <c r="C46" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>88709</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+        <v>3376</v>
+      </c>
+      <c r="D46" s="6">
+        <v>287240</v>
+      </c>
+      <c r="E46" s="8">
+        <v>0.46600000000000003</v>
+      </c>
+      <c r="F46" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
         <v>47</v>
       </c>
@@ -1216,11 +1585,19 @@
         <v>68</v>
       </c>
       <c r="C47" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>45227</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2232</v>
+      </c>
+      <c r="D47" s="6">
+        <v>146854</v>
+      </c>
+      <c r="E47" s="8">
+        <v>0.20169999999999999</v>
+      </c>
+      <c r="F47" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
         <v>48</v>
       </c>
@@ -1228,11 +1605,19 @@
         <v>68</v>
       </c>
       <c r="C48" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>19670</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2031</v>
+      </c>
+      <c r="D48" s="6">
+        <v>234533</v>
+      </c>
+      <c r="E48" s="8">
+        <v>0.18759999999999999</v>
+      </c>
+      <c r="F48" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
         <v>49</v>
       </c>
@@ -1240,11 +1625,19 @@
         <v>68</v>
       </c>
       <c r="C49" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>19007</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2245</v>
+      </c>
+      <c r="D49" s="6">
+        <v>154791</v>
+      </c>
+      <c r="E49" s="8">
+        <v>0.17519999999999999</v>
+      </c>
+      <c r="F49" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
         <v>50</v>
       </c>
@@ -1252,11 +1645,19 @@
         <v>65</v>
       </c>
       <c r="C50" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>57085</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+        <v>446</v>
+      </c>
+      <c r="D50" s="6">
+        <v>916791</v>
+      </c>
+      <c r="E50" s="8">
+        <v>0.90459999999999996</v>
+      </c>
+      <c r="F50" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
         <v>51</v>
       </c>
@@ -1264,11 +1665,19 @@
         <v>68</v>
       </c>
       <c r="C51" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>87198</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+        <v>722</v>
+      </c>
+      <c r="D51" s="6">
+        <v>183564</v>
+      </c>
+      <c r="E51" s="8">
+        <v>0.39610000000000001</v>
+      </c>
+      <c r="F51" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
         <v>52</v>
       </c>
@@ -1276,11 +1685,19 @@
         <v>67</v>
       </c>
       <c r="C52" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>30176</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+        <v>10095</v>
+      </c>
+      <c r="D52" s="6">
+        <v>598993</v>
+      </c>
+      <c r="E52" s="8">
+        <v>0.69540000000000002</v>
+      </c>
+      <c r="F52" s="2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
         <v>53</v>
       </c>
@@ -1288,11 +1705,19 @@
         <v>65</v>
       </c>
       <c r="C53" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>19792</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+        <v>545</v>
+      </c>
+      <c r="D53" s="6">
+        <v>127289</v>
+      </c>
+      <c r="E53" s="8">
+        <v>0.16059999999999999</v>
+      </c>
+      <c r="F53" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
         <v>54</v>
       </c>
@@ -1300,11 +1725,19 @@
         <v>66</v>
       </c>
       <c r="C54" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>42859</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+        <v>19147</v>
+      </c>
+      <c r="D54" s="6">
+        <v>626373</v>
+      </c>
+      <c r="E54" s="8">
+        <v>0.64070000000000005</v>
+      </c>
+      <c r="F54" s="2">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
         <v>55</v>
       </c>
@@ -1312,11 +1745,19 @@
         <v>65</v>
       </c>
       <c r="C55" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>98483</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+        <v>892</v>
+      </c>
+      <c r="D55" s="6">
+        <v>186280</v>
+      </c>
+      <c r="E55" s="8">
+        <v>0.13569999999999999</v>
+      </c>
+      <c r="F55" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
         <v>56</v>
       </c>
@@ -1324,11 +1765,19 @@
         <v>65</v>
       </c>
       <c r="C56" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>4287</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+        <v>104</v>
+      </c>
+      <c r="D56" s="6">
+        <v>171786</v>
+      </c>
+      <c r="E56" s="8">
+        <v>0.183</v>
+      </c>
+      <c r="F56" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
         <v>57</v>
       </c>
@@ -1336,11 +1785,19 @@
         <v>68</v>
       </c>
       <c r="C57" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>14122</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1802</v>
+      </c>
+      <c r="D57" s="6">
+        <v>599857</v>
+      </c>
+      <c r="E57" s="8">
+        <v>0.23019999999999999</v>
+      </c>
+      <c r="F57" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
         <v>58</v>
       </c>
@@ -1348,11 +1805,19 @@
         <v>68</v>
       </c>
       <c r="C58" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>27496</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2158</v>
+      </c>
+      <c r="D58" s="6">
+        <v>164856</v>
+      </c>
+      <c r="E58" s="8">
+        <v>0.20480000000000001</v>
+      </c>
+      <c r="F58" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
         <v>59</v>
       </c>
@@ -1360,11 +1825,19 @@
         <v>67</v>
       </c>
       <c r="C59" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>1709</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+        <v>23724</v>
+      </c>
+      <c r="D59" s="6">
+        <v>855783</v>
+      </c>
+      <c r="E59" s="8">
+        <v>0.57499999999999996</v>
+      </c>
+      <c r="F59" s="2">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
         <v>60</v>
       </c>
@@ -1372,11 +1845,19 @@
         <v>67</v>
       </c>
       <c r="C60" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>65296</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+        <v>5311</v>
+      </c>
+      <c r="D60" s="6">
+        <v>394970</v>
+      </c>
+      <c r="E60" s="8">
+        <v>0.53749999999999998</v>
+      </c>
+      <c r="F60" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
         <v>61</v>
       </c>
@@ -1384,11 +1865,19 @@
         <v>65</v>
       </c>
       <c r="C61" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>97783</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+        <v>305</v>
+      </c>
+      <c r="D61" s="6">
+        <v>75270</v>
+      </c>
+      <c r="E61" s="8">
+        <v>0.14050000000000001</v>
+      </c>
+      <c r="F61" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="s">
         <v>62</v>
       </c>
@@ -1396,11 +1885,19 @@
         <v>67</v>
       </c>
       <c r="C62" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>26692</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+        <v>6424</v>
+      </c>
+      <c r="D62" s="6">
+        <v>555882</v>
+      </c>
+      <c r="E62" s="8">
+        <v>0.7228</v>
+      </c>
+      <c r="F62" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
         <v>63</v>
       </c>
@@ -1408,11 +1905,19 @@
         <v>65</v>
       </c>
       <c r="C63" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>30376</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+        <v>506</v>
+      </c>
+      <c r="D63" s="6">
+        <v>339784</v>
+      </c>
+      <c r="E63" s="8">
+        <v>0.43020000000000003</v>
+      </c>
+      <c r="F63" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
         <v>64</v>
       </c>
@@ -1420,12 +1925,20 @@
         <v>65</v>
       </c>
       <c r="C64" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>52843</v>
+        <v>30</v>
+      </c>
+      <c r="D64" s="6">
+        <v>391573</v>
+      </c>
+      <c r="E64" s="8">
+        <v>0.58409999999999995</v>
+      </c>
+      <c r="F64" s="2">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E1" xr:uid="{2C377992-A1AF-4A32-9DFA-023D0556177F}"/>
+  <autoFilter ref="A1:F64" xr:uid="{2C377992-A1AF-4A32-9DFA-023D0556177F}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
